--- a/Documentation/Sprint 1 Backlog.xlsx
+++ b/Documentation/Sprint 1 Backlog.xlsx
@@ -19,14 +19,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="52">
   <si>
     <t>Duration (Hours)</t>
   </si>
   <si>
-    <t>Member</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -118,13 +115,73 @@
   </si>
   <si>
     <t>Create NavMap to sort values into descending order</t>
+  </si>
+  <si>
+    <t>Research graph api's for java android</t>
+  </si>
+  <si>
+    <t>Test code with sets of data</t>
+  </si>
+  <si>
+    <t>Research how to collect historic data from yahoo api</t>
+  </si>
+  <si>
+    <t>Plan how to implement this feature</t>
+  </si>
+  <si>
+    <t>Code the feature</t>
+  </si>
+  <si>
+    <t>Mark, Victor</t>
+  </si>
+  <si>
+    <t>Hamish, Adam</t>
+  </si>
+  <si>
+    <t>Thomas, Peter</t>
+  </si>
+  <si>
+    <t>Victor, Hamish</t>
+  </si>
+  <si>
+    <t>Victor, Adam, Thomas</t>
+  </si>
+  <si>
+    <t>Thomas</t>
+  </si>
+  <si>
+    <t>Thomas, Mark</t>
+  </si>
+  <si>
+    <t>Thomas, Adam</t>
+  </si>
+  <si>
+    <t>Member(s)</t>
+  </si>
+  <si>
+    <t>Increase readability</t>
+  </si>
+  <si>
+    <t>Victor, Mark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3. Updates Views </t>
+  </si>
+  <si>
+    <t>NOTE: Started part 3 on Wednesday after consulting with Raleigh. She gave us permission to start another story card since we had finished all that was required for this sprint.</t>
+  </si>
+  <si>
+    <t>Graphs dips down because we completed task 1 quickly. After completing task 2, Raleigh let us make a start on another story card which resulted in the huge spike on the graph between Tuesday and Wednesday</t>
+  </si>
+  <si>
+    <t>Totals:</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,8 +197,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,8 +242,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -281,18 +356,47 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -302,15 +406,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -323,6 +418,63 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,7 +485,8 @@
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Neutral" xfId="1" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -344,6 +497,241 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Sprint Burndown Chart</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$3:$I$3</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Mon</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Tues</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Wed</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Thurs</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Fri</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$27:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="75888512"/>
+        <c:axId val="75956224"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75888512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Weekdays</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75956224"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75956224"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Duration (Hours)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.3333333333333333E-2"/>
+              <c:y val="0.24060367454068241"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75888512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>727710</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>91446</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>788670</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>91446</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -633,410 +1021,699 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P17"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:M47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="51.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1"/>
+    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.88671875" style="1" customWidth="1"/>
     <col min="5" max="11" width="8.88671875" style="1"/>
     <col min="12" max="13" width="9.88671875" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+      <c r="A1" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="9"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J3" s="4"/>
+      <c r="K3"/>
+      <c r="L3"/>
+      <c r="M3"/>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="15"/>
-      <c r="K1" s="12"/>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="5"/>
-      <c r="K2" s="12" t="s">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="3">
+        <v>2</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="4">
+        <v>0</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
+        <v>0</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="1" t="s">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>0</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E13" s="3">
+        <v>1</v>
+      </c>
+      <c r="F13" s="3">
+        <v>0</v>
+      </c>
+      <c r="G13" s="3">
+        <v>0</v>
+      </c>
+      <c r="H13" s="3">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="9" t="s">
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="3">
+        <v>0</v>
+      </c>
+      <c r="G15" s="3">
+        <v>0</v>
+      </c>
+      <c r="H15" s="3">
+        <v>0</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="3">
+        <v>2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E16" s="3">
+        <v>2</v>
+      </c>
+      <c r="F16" s="3">
+        <v>2</v>
+      </c>
+      <c r="G16" s="3">
+        <v>0</v>
+      </c>
+      <c r="H16" s="3">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" s="3">
+        <v>2</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E18" s="3">
+        <v>2</v>
+      </c>
+      <c r="F18" s="3">
+        <v>2</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
+        <v>0</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="2"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20" s="14"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="14"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="14"/>
+      <c r="H20" s="14"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+      <c r="F21" s="3">
+        <v>0</v>
+      </c>
+      <c r="G21" s="3">
+        <v>2</v>
+      </c>
+      <c r="H21" s="3">
+        <v>0</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>2</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
+        <v>0</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
+        <v>0</v>
+      </c>
+      <c r="G23" s="3">
+        <v>2</v>
+      </c>
+      <c r="H23" s="3">
+        <v>2</v>
+      </c>
+      <c r="I23" s="4">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" s="3">
+        <v>4</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+      <c r="F24" s="3">
+        <v>0</v>
+      </c>
+      <c r="G24" s="3">
+        <v>4</v>
+      </c>
+      <c r="H24" s="3">
+        <v>4</v>
+      </c>
+      <c r="I24" s="4">
+        <v>4</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B25" s="25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="D25" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="25">
+        <v>0</v>
+      </c>
+      <c r="F25" s="25">
+        <v>0</v>
+      </c>
+      <c r="G25" s="25">
+        <v>2</v>
+      </c>
+      <c r="H25" s="25">
+        <v>2</v>
+      </c>
+      <c r="I25" s="27">
+        <v>2</v>
+      </c>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="2"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A27" s="2"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E27" s="3">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3">
+        <v>5</v>
+      </c>
+      <c r="G27" s="3">
+        <v>14</v>
+      </c>
+      <c r="H27" s="3">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="I3" s="11" t="s">
+      <c r="I27" s="3">
         <v>7</v>
       </c>
-      <c r="K3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="L3" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="1">
-        <v>2</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="1">
-        <v>2</v>
-      </c>
-      <c r="C7" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="F7" s="1">
-        <v>0</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="F8" s="1">
-        <v>0</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="1">
-        <v>0</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E13" s="1">
-        <v>1</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
-      <c r="C14" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="1">
-        <v>1</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>0</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1</v>
-      </c>
-      <c r="F17" s="1">
-        <v>0</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="17"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="19"/>
+    </row>
+    <row r="47" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D47" s="1" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -1047,15 +1724,16 @@
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="D3">
       <formula1>SUM(K1:K3)</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D10 D13:D17">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D10 D13:D18">
       <formula1>$K$3:$M$3</formula1>
     </dataValidation>
     <dataValidation type="custom" showInputMessage="1" showErrorMessage="1" sqref="D4:D5">
-      <formula1>SUM(K1:K1048575)</formula1>
+      <formula1>SUM(K:K)</formula1>
     </dataValidation>
   </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="73" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1075,49 +1753,49 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
